--- a/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table22.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62EA8D-E17B-6846-A772-EC529A2292F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1557CA6-E6C5-424C-8842-0ACCAA3A7DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -44,33 +44,15 @@
     </r>
   </si>
   <si>
-    <t>Bofuto, Pacific_____</t>
-  </si>
-  <si>
-    <t>Cabezon____</t>
-  </si>
-  <si>
-    <t>Lingcod-</t>
-  </si>
-  <si>
     <t>Mackerel jack</t>
   </si>
   <si>
     <t>Sculpin</t>
   </si>
   <si>
-    <t>Yefiowtail-----</t>
-  </si>
-  <si>
-    <t>All others_</t>
-  </si>
-  <si>
     <t>Total number of fish</t>
   </si>
   <si>
-    <t>Total number of angler hours__</t>
-  </si>
-  <si>
     <t>Total check</t>
   </si>
   <si>
@@ -80,15 +62,9 @@
     <t>Bass, kelp and sand</t>
   </si>
   <si>
-    <t>Halibut California_______________</t>
-  </si>
-  <si>
     <t>Mackerel Pacific</t>
   </si>
   <si>
-    <t>Seabass white___</t>
-  </si>
-  <si>
     <t>Sheephead California</t>
   </si>
   <si>
@@ -99,6 +75,39 @@
   </si>
   <si>
     <t xml:space="preserve">Total number of anglers </t>
+  </si>
+  <si>
+    <t>Bofuto, Pacific</t>
+  </si>
+  <si>
+    <t>Cabezon</t>
+  </si>
+  <si>
+    <t>Halibut California</t>
+  </si>
+  <si>
+    <t>Lingcod</t>
+  </si>
+  <si>
+    <t>Seabass white</t>
+  </si>
+  <si>
+    <t>Yefiowtail</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Tuna, bluefin</t>
+  </si>
+  <si>
+    <t>All others</t>
+  </si>
+  <si>
+    <t>Total number of angler hours</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -189,22 +198,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,7 +555,7 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>26289</v>
@@ -554,7 +563,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8">
         <v>499691</v>
@@ -562,7 +571,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>80438</v>
@@ -570,7 +579,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>6433</v>
@@ -578,7 +587,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <v>9118</v>
@@ -586,7 +595,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8">
         <v>87766</v>
@@ -594,7 +603,7 @@
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="8">
         <v>5677</v>
@@ -602,27 +611,31 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>129944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="9">
         <v>3925494</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="11">
         <v>73857</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="8">
         <v>81438</v>
@@ -630,7 +643,7 @@
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8">
         <v>3158</v>
@@ -638,7 +651,7 @@
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8">
         <v>30496</v>
@@ -646,21 +659,23 @@
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11">
         <v>81562</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B16" s="11">
         <v>3348</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8">
         <v>35165</v>
@@ -668,7 +683,7 @@
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>19742</v>
@@ -676,7 +691,7 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8">
         <v>254435</v>
@@ -684,7 +699,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="9">
         <v>5354051</v>
@@ -692,7 +707,7 @@
     </row>
     <row r="21" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" ref="B21" si="0">SUM(B2:B19)-B20</f>
@@ -701,7 +716,7 @@
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
         <v>748052</v>
@@ -709,7 +724,7 @@
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10">
         <v>3339066</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table22.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1557CA6-E6C5-424C-8842-0ACCAA3A7DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39762E94-B875-7842-9F72-B19EB1163CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>3339066</v>
+        <v>3539066</v>
       </c>
     </row>
   </sheetData>
